--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -575,7 +575,7 @@
         <v>45832</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>44803</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>45832</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45891.32903935185</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45453</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45947</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44739</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45399</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45154</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45945</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45985</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45866.63324074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>46003.49008101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45931</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45867.68763888889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45867</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44959</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>45467.60636574074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45929.57364583333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45744</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45796</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45892.49017361111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>45573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45012</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44803</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45175</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45199</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45811.74119212963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45892.6153125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>45898.48373842592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>45694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45150</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45923.6009375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45150</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>45953.40945601852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>45874.49350694445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45694</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>45154</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>45744</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45811.74068287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>45834.34667824074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45926.3881712963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45930.37155092593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45688</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>45213</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45894</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45849.4200462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45869.49376157407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45688</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45897</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45615</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>45096</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45469.48792824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45792</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>44575</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>44684</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44607</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44860.95458333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44405</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44438</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44886.96305555556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44862</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44862</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>44405</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>44405</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44817</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>44854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44817.94689814815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>44883</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44321</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44550</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44405</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>44488.41368055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44361</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44607.9409837963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44389.93957175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44799</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44463</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>44488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44854</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44672</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44607.94053240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44823</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44781</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44817</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44788.65056712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44488.52082175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>44427.93604166667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44421.97289351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45146</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45687.64724537037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45238.67594907407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45573.59427083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45309</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45077</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45679</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45212.95590277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45272.54651620371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45240.94666666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45265.95695601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45231</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45154.95475694445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45646</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45337</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45630.42950231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45621</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44953</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45573</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45665</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44960</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>45691</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44965</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45413.59373842592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45799</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45799.34563657407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>45799.65711805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>45688.68222222223</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45799</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>45799.65689814815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45798.59435185185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>45687.65006944445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>45842.34484953704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>45805</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45805.57359953703</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45110.31878472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45805</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45805.53162037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>45804</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>45805</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>45887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45189</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45888.63964120371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>45889.68805555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>45537</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45889.37136574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45889.65671296296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45176</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45810</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45708</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45453</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>45889.65699074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45890.60027777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45891.48686342593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45413</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>45813.48991898148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>45063</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>45892.4903587963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45491</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45238</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>45622</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45892.48996527777</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>45400</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44482.94003472223</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44588</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>45898.53658564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45818.31184027778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45818.31322916667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45051</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45818.31854166667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45819.57340277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45898.54578703704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45190</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45414</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45901.42961805555</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45279.92658564815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45902.59466435185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45902.59523148148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45902.59489583333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44895</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45219</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45033</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45902.59528935186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44832.953125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45260</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45824</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45905.45395833333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45150.9416087963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45150.94170138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45196</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45908.67270833333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45824</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45824</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>45908.67048611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45908.68728009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45744</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45601.59490740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45909.59554398148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45196</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>45824</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45826.30746527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>45827.48145833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45912.59493055556</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45826.56829861111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45912.53837962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>45912.59456018519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45912.59518518519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45827.4234375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>45604</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45916</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45912</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>45463.48306712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>45916.58972222222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>45916.46555555556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45916.59509259259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45154.95482638889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45828</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44726</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>45279</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44607</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45832.59638888889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44392</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45833.49342592592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>45833.49737268518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>45196</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45925.53197916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45925</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45925.59481481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45548</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45834.34582175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>45834</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45834</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45469.63549768519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45834.34496527778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45834.34519675926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45930.37351851852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45834.3466087963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>45834.34711805556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45839</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>45930</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45930.36988425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45930.64141203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45839</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45463</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45474</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45709</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>45623</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>45615</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45936.57346064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45936.51128472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>45936</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45936</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>45938.61662037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45937.42935185185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45840.63622685185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45818</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45841.67427083333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45579</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45841.65853009259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45841.31274305555</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45939.63638888889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45938.63606481482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45939.63693287037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45201</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45943.34489583333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45940</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45943.44826388889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45939</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45845.53070601852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44494</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45573</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45845.53159722222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45843.34418981482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45845</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45612</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45096</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45244</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45945.47921296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45945.48712962963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45117</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45894</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45846</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>45552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45552</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45614</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45944.34482638889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45874</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>45894</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45152</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45751</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45467</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45945.48403935185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45467</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45467</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45946</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45561.47195601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>45561.55268518518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>45946.44892361111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>45946.44894675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45946</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45485.45442129629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45950.59493055556</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45950.61998842593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>45950.66767361111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>45121</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45229</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45855</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45855</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45950.59462962963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45855</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45855</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45950.63609953703</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45952</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45952</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45862</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45212</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45952</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>45150</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45150</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45866.64355324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>44321</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45868</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45868.42105324074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45868</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45868.47645833333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45868.48922453704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45868.47358796297</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45868.4797337963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44505</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>45954</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45870.34478009259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45870.34482638889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45870.65719907408</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45870.34417824074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45870.36483796296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45957.3212037037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45957.31655092593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45957</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45870</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45955.34559027778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45954</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45665</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>45665</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45873.63587962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>45798</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45062</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45870.34471064815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>45870.65721064815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45870.65722222222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>45646</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45958.48908564815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45870</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45190.95821759259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45190.95814814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>45874.67802083334</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>45874.49055555555</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45874.54712962963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45362</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45959.59439814815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45639</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>45958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>45196</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45958.5297337963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45961.58293981481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45212</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26861,7 +26861,7 @@
         <v>45880.49833333334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>45960.59054398148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>45880.41603009259</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45880.49027777778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45880.55248842593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>45723</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45966</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>45966.34513888889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45705</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45882.40704861111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>45882.36502314815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>45150.94185185185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45882.42844907408</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45882.69832175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45881</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45883.34501157407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>45972.62940972222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45975.43429398148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45975.43760416667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45974.64761574074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45887</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45884.74715277777</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44854</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45742</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45727</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45198</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45980.3780787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45980.35990740741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45980.36521990741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45980</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45981</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45615.7202662037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45985.37741898148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>46021.59439814815</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45743</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>45985.40084490741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>45708.40659722222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45985.38216435185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>45589</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45987</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45986.57354166666</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>46030.65734953704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>46030.65747685185</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>46031</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>46030.65751157407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>46030.65762731482</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>45986</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>46029</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45173</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>46035</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>46035.40673611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>45238</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44750</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44923</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>45994.54309027778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>45994.42756944444</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>46034</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>45505</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>46034</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45994.52303240741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30731,7 +30731,7 @@
         <v>46034</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45812</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45694</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44896</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45637</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45154.95504629629</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>46034</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45999.52039351852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>46038.40663194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45999.48986111111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45999.70535879629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>46041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>45999</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>45588</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>45999.53010416667</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>45175.95738425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45743</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>46001.57497685185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>46001</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31968,7 +31968,7 @@
         <v>46001.57512731481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45199.97033564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>46001.57520833334</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>46003.46940972222</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>45212</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>46002.49015046296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>46002.50983796296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>46002.56920138889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>46002.49121527778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>46003</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>46002.46994212963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45615.61438657407</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44953</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>46008</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45639</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44783</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>46008.45121527778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45237</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45639</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45615</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>46013.53849537037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45960</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45960</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45960</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>46013.60815972222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45960</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45960</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45960</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45960</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>45601.59497685185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33830,7 +33830,7 @@
         <v>46057.70229166667</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44904</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>45463</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>44942</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45147</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45154.95511574074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45337</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45615.61038194445</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45481</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44358</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>45686.41289351852</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45150</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45561.55981481481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>45190.96262731482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>44609</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34772,7 +34772,7 @@
         <v>45154.95400462963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44992</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>45723.34453703704</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45639</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
         <v>45208.92326388889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45027</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>45600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>45264</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>45707</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45280</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45154</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45463</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44818</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45362</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>45560.71907407408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45615.57726851852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45547.42896990741</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
         <v>44362</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45639</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>44886</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>44886</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>45188</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>45413.65241898148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36329,7 +36329,7 @@
         <v>44953</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         <v>45630</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44953</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36500,7 +36500,7 @@
         <v>45476</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44904.48228009259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45231</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45377.95069444444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45182.94725694445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>45561</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44550</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44516</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44624</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>45190.95791666667</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>45237</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         <v>45774</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45279</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>45773.344375</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45280</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>45238</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>45112</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44942.46430555556</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>45561</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>45561</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>45231</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>45616</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>45646</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>45687</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44916</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>45639</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>45727.71951388889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>45201</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45491</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>45777</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>45779</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38327,7 +38327,7 @@
         <v>45639</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45691</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>45691</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>45792.65668981482</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38575,7 +38575,7 @@
         <v>45792</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         <v>45796</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38699,7 +38699,7 @@
         <v>45797.36483796296</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38756,7 +38756,7 @@
         <v>45797.44836805556</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45797</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>45796</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>45208</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>45796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>45615</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -575,7 +575,7 @@
         <v>45832</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>44803</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>45832</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45891.32903935185</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45453</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45947</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44739</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45399</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45154</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45945</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45985</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45866.63324074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>46003.49008101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>45931</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>45867.68763888889</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45867</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44959</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2958,7 +2958,7 @@
         <v>45467.60636574074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>45929.57364583333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         <v>45744</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3240,7 +3240,7 @@
         <v>45796</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>45892.49017361111</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>45573</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>45012</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         <v>44427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
         <v>44803</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>45175</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>45199</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>45811.74119212963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4066,7 +4066,7 @@
         <v>45892.6153125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>45898.48373842592</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>45694</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45150</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45923.6009375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         <v>45150</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>45953.40945601852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>45874.49350694445</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>45694</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>45154</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>45744</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44431</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>45811.74068287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>45834.34667824074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>45926.3881712963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45930.37155092593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>45688</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>45213</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>45894</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45849.4200462963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>45869.49376157407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>45688</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45897</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6419,7 +6419,7 @@
         <v>45615</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>44483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6589,7 +6589,7 @@
         <v>45096</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45469.48792824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>45792</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6849,7 +6849,7 @@
         <v>44575</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
         <v>44684</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6963,7 +6963,7 @@
         <v>44607</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44399</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>44860.95458333333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44405</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44438</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44886.96305555556</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44862</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>44587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         <v>44862</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>44405</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>44405</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44817</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>44854</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         <v>44817.94689814815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         <v>44883</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         <v>44321</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8049,7 +8049,7 @@
         <v>44550</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
         <v>44405</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8163,7 +8163,7 @@
         <v>44488.41368055555</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8225,7 +8225,7 @@
         <v>44361</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>44607.9409837963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8349,7 +8349,7 @@
         <v>44389.93957175926</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44799</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44463</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8530,7 +8530,7 @@
         <v>44488</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>44854</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8649,7 +8649,7 @@
         <v>44697</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>44672</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         <v>44616</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
         <v>44616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44607.94053240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8949,7 +8949,7 @@
         <v>44823</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9006,7 +9006,7 @@
         <v>44781</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9063,7 +9063,7 @@
         <v>44817</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>44788.65056712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>44488.52082175926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         <v>44473</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>44427.93604166667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>44421.97289351852</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9430,7 +9430,7 @@
         <v>44607</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9487,7 +9487,7 @@
         <v>45146</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9549,7 +9549,7 @@
         <v>45687.64724537037</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9606,7 +9606,7 @@
         <v>45238.67594907407</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9663,7 +9663,7 @@
         <v>45573.59427083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45309</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9777,7 +9777,7 @@
         <v>44875</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9834,7 +9834,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>45077</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>45679</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>45454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>45212.95590277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10139,7 +10139,7 @@
         <v>45272.54651620371</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>45240.94666666666</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10263,7 +10263,7 @@
         <v>45265.95695601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10325,7 +10325,7 @@
         <v>45231</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10382,7 +10382,7 @@
         <v>45154.95475694445</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45646</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45337</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45630.42950231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>45621</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10672,7 +10672,7 @@
         <v>44953</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45573</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         <v>45665</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44960</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>45691</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44965</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45413.59373842592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45799</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11210,7 +11210,7 @@
         <v>45799.34563657407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11272,7 +11272,7 @@
         <v>45799.65711805555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11334,7 +11334,7 @@
         <v>45688.68222222223</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11396,7 +11396,7 @@
         <v>45799</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11458,7 +11458,7 @@
         <v>45799.65689814815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45237</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>45798.59435185185</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>45687.65006944445</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>45842.34484953704</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>45805</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45805.57359953703</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         <v>45110.31878472222</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         <v>45805</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12011,7 +12011,7 @@
         <v>45805.53162037037</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>45804</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>45805</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>45887</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         <v>45189</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         <v>45888.63964120371</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         <v>45889.68805555555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         <v>45537</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>45889.37136574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>45889.65671296296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12601,7 +12601,7 @@
         <v>45742</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12658,7 +12658,7 @@
         <v>45176</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12715,7 +12715,7 @@
         <v>45810</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12777,7 +12777,7 @@
         <v>45708</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>45453</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12963,7 +12963,7 @@
         <v>45889.65699074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13025,7 +13025,7 @@
         <v>45693</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45890.60027777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13149,7 +13149,7 @@
         <v>45891.48686342593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45413</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>45813.48991898148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>45063</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>45892.4903587963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45491</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45238</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13568,7 +13568,7 @@
         <v>45622</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>45892.48996527777</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>45400</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44482.94003472223</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44588</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>45898.53658564815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13930,7 +13930,7 @@
         <v>45818.31184027778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13992,7 +13992,7 @@
         <v>45818.31322916667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14054,7 +14054,7 @@
         <v>45051</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14111,7 +14111,7 @@
         <v>45818.31854166667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>45819.57340277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>45898.54578703704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45190</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14354,7 +14354,7 @@
         <v>45414</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45901.42961805555</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14478,7 +14478,7 @@
         <v>45279.92658564815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14535,7 +14535,7 @@
         <v>45902.59466435185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45902.59523148148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>45902.59489583333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44895</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>45219</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45033</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45902.59528935186</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>44832.953125</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45260</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>45824</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45905.45395833333</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45150.9416087963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15326,7 +15326,7 @@
         <v>45150.94170138889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>45196</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45908.67270833333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15507,7 +15507,7 @@
         <v>45824</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15569,7 +15569,7 @@
         <v>45824</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15631,7 +15631,7 @@
         <v>45908.67048611111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15693,7 +15693,7 @@
         <v>45908.68728009259</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>45744</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45601.59490740741</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15879,7 +15879,7 @@
         <v>45909.59554398148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>45196</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>45824</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>45826.30746527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>45827.48145833334</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16184,7 +16184,7 @@
         <v>45912.59493055556</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45826.56829861111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45912.53837962963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>45912.59456018519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16432,7 +16432,7 @@
         <v>45912.59518518519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>45827.4234375</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16556,7 +16556,7 @@
         <v>45604</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16613,7 +16613,7 @@
         <v>45916</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16675,7 +16675,7 @@
         <v>45912</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         <v>45463.48306712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         <v>45916.58972222222</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>45916.46555555556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16918,7 +16918,7 @@
         <v>45916.59509259259</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45154.95482638889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>45828</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>44726</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>45279</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>44909</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>44607</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45922</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45832.59638888889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>44392</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45833.49342592592</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>45833.49737268518</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>45196</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>45196</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45482</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45833</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>45833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45925.53197916667</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>45925</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45925.59481481482</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45548</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>45834.34582175926</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>45834</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>45834</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18371,7 +18371,7 @@
         <v>45469.63549768519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18433,7 +18433,7 @@
         <v>45834.34496527778</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45834.34519675926</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45930.37351851852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45834.3466087963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>45834.34711805556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18743,7 +18743,7 @@
         <v>45839</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>45238</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>45930</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>45930.36988425926</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18981,7 +18981,7 @@
         <v>45930.64141203704</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19043,7 +19043,7 @@
         <v>45839</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>45463</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19157,7 +19157,7 @@
         <v>44966</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>45474</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>45709</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>45623</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>45615</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>45936.57346064815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>45936.51128472222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19576,7 +19576,7 @@
         <v>45936</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45936</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>45938.61662037037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19757,7 +19757,7 @@
         <v>45937.42935185185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45840.63622685185</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>45818</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19943,7 +19943,7 @@
         <v>45841.67427083333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20005,7 +20005,7 @@
         <v>45579</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         <v>45841.65853009259</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45841.31274305555</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20186,7 +20186,7 @@
         <v>45939.63638888889</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20248,7 +20248,7 @@
         <v>45938.63606481482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45939.63693287037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20372,7 +20372,7 @@
         <v>45201</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>45943.34489583333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45940</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20558,7 +20558,7 @@
         <v>45943.44826388889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20615,7 +20615,7 @@
         <v>45939</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>45845.53070601852</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>44494</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45573</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>45845.53159722222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>45843.34418981482</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20982,7 +20982,7 @@
         <v>45845</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21039,7 +21039,7 @@
         <v>45612</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21101,7 +21101,7 @@
         <v>45874</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>45096</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21225,7 +21225,7 @@
         <v>45148</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21287,7 +21287,7 @@
         <v>45244</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45945.47921296296</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45945.48712962963</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45117</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45148</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21587,7 +21587,7 @@
         <v>45894</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45846</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>45552</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45552</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45614</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21897,7 +21897,7 @@
         <v>45944.34482638889</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21959,7 +21959,7 @@
         <v>45874</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22021,7 +22021,7 @@
         <v>45894</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22083,7 +22083,7 @@
         <v>45152</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22145,7 +22145,7 @@
         <v>45751</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22202,7 +22202,7 @@
         <v>45467</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22264,7 +22264,7 @@
         <v>45945.48403935185</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22321,7 +22321,7 @@
         <v>45467</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>45467</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45946</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45561.47195601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>45561.55268518518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>45946.44892361111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>45946.44894675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>45946</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>45485.45442129629</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>45950.59493055556</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>45950.61998842593</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>45950.66767361111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>45121</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45229</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>45855</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23211,7 +23211,7 @@
         <v>45855</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23273,7 +23273,7 @@
         <v>45950.59462962963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45855</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23397,7 +23397,7 @@
         <v>45855</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>45950.63609953703</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45952</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23583,7 +23583,7 @@
         <v>45952</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23645,7 +23645,7 @@
         <v>45862</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23707,7 +23707,7 @@
         <v>45212</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45952</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>45150</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23893,7 +23893,7 @@
         <v>45150</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
         <v>45866.64355324074</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24017,7 +24017,7 @@
         <v>44321</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>45868</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24136,7 +24136,7 @@
         <v>45868.42105324074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24198,7 +24198,7 @@
         <v>45868</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24260,7 +24260,7 @@
         <v>45868.47645833333</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45868.48922453704</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24384,7 +24384,7 @@
         <v>45868.47358796297</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45868.4797337963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24508,7 +24508,7 @@
         <v>44505</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24570,7 +24570,7 @@
         <v>45954</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24627,7 +24627,7 @@
         <v>45870.34478009259</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>45870.34482638889</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24741,7 +24741,7 @@
         <v>45870.65719907408</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24798,7 +24798,7 @@
         <v>45870.34417824074</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>45870.36483796296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24917,7 +24917,7 @@
         <v>45957.3212037037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24974,7 +24974,7 @@
         <v>45957.31655092593</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25031,7 +25031,7 @@
         <v>45957</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>45870</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>45955.34559027778</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25217,7 +25217,7 @@
         <v>45954</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25274,7 +25274,7 @@
         <v>45665</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25336,7 +25336,7 @@
         <v>45665</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25398,7 +25398,7 @@
         <v>45665</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25460,7 +25460,7 @@
         <v>45873.63587962963</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25522,7 +25522,7 @@
         <v>45798</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45062</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>45870.34471064815</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>45870.65721064815</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45870.65722222222</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>45646</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25874,7 +25874,7 @@
         <v>45958.48908564815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45870</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45874</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45190.95821759259</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26122,7 +26122,7 @@
         <v>45190.95814814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26184,7 +26184,7 @@
         <v>45874.67802083334</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26246,7 +26246,7 @@
         <v>45874.49055555555</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26308,7 +26308,7 @@
         <v>45874.54712962963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45362</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>45959.59439814815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26494,7 +26494,7 @@
         <v>45639</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>45958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>45196</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>45958.5297337963</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26737,7 +26737,7 @@
         <v>45961.58293981481</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26799,7 +26799,7 @@
         <v>45212</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26861,7 +26861,7 @@
         <v>45880.49833333334</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26923,7 +26923,7 @@
         <v>45960.59054398148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26985,7 +26985,7 @@
         <v>45880.41603009259</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27047,7 +27047,7 @@
         <v>45880.49027777778</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27109,7 +27109,7 @@
         <v>45880.55248842593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>45723</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45966</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>45966.34513888889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45705</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45882.40704861111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27466,7 +27466,7 @@
         <v>45882.36502314815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27528,7 +27528,7 @@
         <v>45150.94185185185</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45882.42844907408</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45882.69832175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45881</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27771,7 +27771,7 @@
         <v>45883.34501157407</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27833,7 +27833,7 @@
         <v>44937</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27890,7 +27890,7 @@
         <v>45972.62940972222</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45975.43429398148</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45975.43760416667</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28076,7 +28076,7 @@
         <v>45974.64761574074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28138,7 +28138,7 @@
         <v>45887</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28195,7 +28195,7 @@
         <v>45884.74715277777</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28252,7 +28252,7 @@
         <v>44854</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28314,7 +28314,7 @@
         <v>45742</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28371,7 +28371,7 @@
         <v>45727</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28433,7 +28433,7 @@
         <v>45742</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28490,7 +28490,7 @@
         <v>45198</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28547,7 +28547,7 @@
         <v>45742</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45980.3780787037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45980.35990740741</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45980.36521990741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45980</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>45981</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45615.7202662037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45985.37741898148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29013,7 +29013,7 @@
         <v>46021.59439814815</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29075,7 +29075,7 @@
         <v>45743</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29137,7 +29137,7 @@
         <v>45985.40084490741</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29199,7 +29199,7 @@
         <v>45985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>45708.40659722222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45985.38216435185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29385,7 +29385,7 @@
         <v>45589</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45987</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45986.57354166666</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>46030.65734953704</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29623,7 +29623,7 @@
         <v>46030.65747685185</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29680,7 +29680,7 @@
         <v>46031</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29737,7 +29737,7 @@
         <v>46030.65751157407</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29794,7 +29794,7 @@
         <v>46030.65762731482</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29851,7 +29851,7 @@
         <v>45986</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>46029</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45173</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>46035</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>46035.40673611111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>45238</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30203,7 +30203,7 @@
         <v>44750</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44942</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44923</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>45994.54309027778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30436,7 +30436,7 @@
         <v>45994.42756944444</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>46034</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>45505</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>46034</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45994.52303240741</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30731,7 +30731,7 @@
         <v>46034</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30788,7 +30788,7 @@
         <v>45033</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30845,7 +30845,7 @@
         <v>45812</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30907,7 +30907,7 @@
         <v>45694</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44896</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45637</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31083,7 +31083,7 @@
         <v>45154.95504629629</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31145,7 +31145,7 @@
         <v>46034</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31202,7 +31202,7 @@
         <v>45999.52039351852</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31259,7 +31259,7 @@
         <v>46038.40663194445</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31316,7 +31316,7 @@
         <v>45999.48986111111</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31373,7 +31373,7 @@
         <v>45999.70535879629</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31430,7 +31430,7 @@
         <v>46041</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31492,7 +31492,7 @@
         <v>45999</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31549,7 +31549,7 @@
         <v>45588</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31611,7 +31611,7 @@
         <v>45999.53010416667</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31668,7 +31668,7 @@
         <v>45175.95738425926</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>45743</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31792,7 +31792,7 @@
         <v>45573</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31849,7 +31849,7 @@
         <v>46001.57497685185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31911,7 +31911,7 @@
         <v>46001</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31968,7 +31968,7 @@
         <v>46001.57512731481</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32030,7 +32030,7 @@
         <v>45199.97033564815</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>46001.57520833334</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>46003.46940972222</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44911</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32273,7 +32273,7 @@
         <v>45212</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>46002.49015046296</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32392,7 +32392,7 @@
         <v>46002.50983796296</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32449,7 +32449,7 @@
         <v>46002.56920138889</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32511,7 +32511,7 @@
         <v>46002.49121527778</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>46003</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>46002.46994212963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45615.61438657407</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44953</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>46008</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45639</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44783</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>46008.45121527778</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45237</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45639</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33163,7 +33163,7 @@
         <v>45615</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33220,7 +33220,7 @@
         <v>46013.53849537037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33277,7 +33277,7 @@
         <v>45960</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33339,7 +33339,7 @@
         <v>45960</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45960</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>46013.60815972222</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45960</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45960</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45960</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45960</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>45601.59497685185</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33830,7 +33830,7 @@
         <v>46057.70229166667</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>44904</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>45463</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>44942</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34058,7 +34058,7 @@
         <v>45147</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34115,7 +34115,7 @@
         <v>45154.95511574074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34177,7 +34177,7 @@
         <v>45259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45337</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34296,7 +34296,7 @@
         <v>45615.61038194445</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34353,7 +34353,7 @@
         <v>45481</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34410,7 +34410,7 @@
         <v>44358</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34472,7 +34472,7 @@
         <v>45686.41289351852</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45150</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45561.55981481481</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>45190.96262731482</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>44609</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34772,7 +34772,7 @@
         <v>45154.95400462963</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44992</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>45723.34453703704</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45639</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
         <v>45208.92326388889</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45027</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35129,7 +35129,7 @@
         <v>45600</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>45264</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>45707</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45280</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>45154</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45463</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44818</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45362</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>45560.71907407408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45615.57726851852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35786,7 +35786,7 @@
         <v>44986</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35848,7 +35848,7 @@
         <v>45547.42896990741</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35905,7 +35905,7 @@
         <v>44362</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35967,7 +35967,7 @@
         <v>45201</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36024,7 +36024,7 @@
         <v>45639</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36086,7 +36086,7 @@
         <v>44886</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36148,7 +36148,7 @@
         <v>44886</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36210,7 +36210,7 @@
         <v>45188</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>45413.65241898148</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36329,7 +36329,7 @@
         <v>44953</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         <v>45630</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44953</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36500,7 +36500,7 @@
         <v>45476</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>44904.48228009259</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36619,7 +36619,7 @@
         <v>45231</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36676,7 +36676,7 @@
         <v>45377.95069444444</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36738,7 +36738,7 @@
         <v>45182.94725694445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36800,7 +36800,7 @@
         <v>45561</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36857,7 +36857,7 @@
         <v>44550</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36914,7 +36914,7 @@
         <v>44516</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36971,7 +36971,7 @@
         <v>44624</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37028,7 +37028,7 @@
         <v>45190.95791666667</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37090,7 +37090,7 @@
         <v>45237</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37152,7 +37152,7 @@
         <v>45774</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37214,7 +37214,7 @@
         <v>45279</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37271,7 +37271,7 @@
         <v>45773.344375</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37333,7 +37333,7 @@
         <v>45280</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37390,7 +37390,7 @@
         <v>45238</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37447,7 +37447,7 @@
         <v>45112</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37504,7 +37504,7 @@
         <v>44942.46430555556</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37561,7 +37561,7 @@
         <v>45561</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37618,7 +37618,7 @@
         <v>45561</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37675,7 +37675,7 @@
         <v>45231</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37732,7 +37732,7 @@
         <v>45616</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37789,7 +37789,7 @@
         <v>45646</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>45687</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37903,7 +37903,7 @@
         <v>44916</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37960,7 +37960,7 @@
         <v>45639</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38022,7 +38022,7 @@
         <v>45727.71951388889</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38084,7 +38084,7 @@
         <v>45201</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38146,7 +38146,7 @@
         <v>45491</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38203,7 +38203,7 @@
         <v>45777</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38265,7 +38265,7 @@
         <v>45779</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38327,7 +38327,7 @@
         <v>45639</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38389,7 +38389,7 @@
         <v>45691</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>45691</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>45792.65668981482</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38575,7 +38575,7 @@
         <v>45792</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38637,7 +38637,7 @@
         <v>45796</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38699,7 +38699,7 @@
         <v>45797.36483796296</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38756,7 +38756,7 @@
         <v>45797.44836805556</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38818,7 +38818,7 @@
         <v>45797</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38880,7 +38880,7 @@
         <v>45796</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38937,7 +38937,7 @@
         <v>45208</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38994,7 +38994,7 @@
         <v>45796</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39051,7 +39051,7 @@
         <v>45615</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>

--- a/Översikt GÄLLIVARE.xlsx
+++ b/Översikt GÄLLIVARE.xlsx
@@ -575,7 +575,7 @@
         <v>45832</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         <v>45855</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>44803</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>45426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>45832</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>45891.32903935185</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45453</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45947</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>45945</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         <v>44739</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>45898</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45399</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         <v>45154</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>45945</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>45985</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         <v>45908</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45866.63324074074</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>46003.49008101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         <v>45175</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>45867.68763888889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>45867</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>45931</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         <v>45364</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45467.60636574074</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>45929.57364583333</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>45744</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3242,7 +3242,7 @@
         <v>45796</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>44959</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         <v>45892.49017361111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         <v>45573</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         <v>45012</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44427</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>44803</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3884,7 +3884,7 @@
         <v>45175</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3979,7 +3979,7 @@
         <v>45199</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4074,7 +4074,7 @@
         <v>45892.6153125</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4165,7 +4165,7 @@
         <v>45694</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         <v>45898.48373842592</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>45150</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4438,7 +4438,7 @@
         <v>45923.6009375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4533,7 +4533,7 @@
         <v>45874.49350694445</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4624,7 +4624,7 @@
         <v>45150</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         <v>45953.40945601852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>45694</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
         <v>45154</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         <v>45175</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
         <v>45744</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
         <v>45811.74119212963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>44431</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>44438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>45834.34667824074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>45849.4200462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>45926.3881712963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>45869.49376157407</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45930.37155092593</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
         <v>45688</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>45213</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>45894</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>45420</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6248,7 +6248,7 @@
         <v>45688</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>45897</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         <v>45615</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44483</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45096</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>45469.48792824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>45792</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>45811.74068287037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>44575</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
         <v>44684</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7062,7 +7062,7 @@
         <v>44543</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>44607</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7186,7 +7186,7 @@
         <v>44399</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7243,7 +7243,7 @@
         <v>44860.95458333333</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>44405</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>44438</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>44886.96305555556</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>44862</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>44405</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>44405</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>44862</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44862</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44817</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
         <v>44817.94689814815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>44854</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
         <v>44883</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44321</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         <v>44405</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8205,7 +8205,7 @@
         <v>44550</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8262,7 +8262,7 @@
         <v>44488.41368055555</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>44361</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>44607.9409837963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>44389.93957175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         <v>44799</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>44463</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>44488</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>44854</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>44697</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>44672</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>44616</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8924,7 +8924,7 @@
         <v>44607.94053240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8986,7 +8986,7 @@
         <v>44616</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9048,7 +9048,7 @@
         <v>44823</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44781</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9162,7 +9162,7 @@
         <v>44817</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9224,7 +9224,7 @@
         <v>44788.65056712963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9281,7 +9281,7 @@
         <v>44488.52082175926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44427.93604166667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9405,7 +9405,7 @@
         <v>44473</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>44421.97289351852</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9529,7 +9529,7 @@
         <v>44607</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         <v>45146</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9648,7 +9648,7 @@
         <v>45687.64724537037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9705,7 +9705,7 @@
         <v>45573.59427083333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9762,7 +9762,7 @@
         <v>45309</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9819,7 +9819,7 @@
         <v>45238.67594907407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>45077</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10000,7 +10000,7 @@
         <v>45679</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>45454</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>45212.95590277778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>45240.94666666666</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>45272.54651620371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>45265.95695601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44875</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>45231</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>45154.95475694445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>45646</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>45630.42950231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>45621</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>45337</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44953</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>45573</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45665</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44960</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11009,7 +11009,7 @@
         <v>44960</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11071,7 +11071,7 @@
         <v>45691</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11128,7 +11128,7 @@
         <v>44965</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45413.59373842592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>45688.68222222223</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45237</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>45687.65006944445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>45742</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>45176</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>45491</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>45413</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>45238</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45818.31184027778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45818.31322916667</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>45842.34484953704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
         <v>45051</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
         <v>45818.31854166667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12023,7 +12023,7 @@
         <v>45819.57340277778</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12080,7 +12080,7 @@
         <v>45414</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12142,7 +12142,7 @@
         <v>44482.94003472223</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12204,7 +12204,7 @@
         <v>44588</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12261,7 +12261,7 @@
         <v>45110.31878472222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12323,7 +12323,7 @@
         <v>44895</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         <v>45190</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12442,7 +12442,7 @@
         <v>45887</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         <v>45189</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>45888.63964120371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>45824</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12675,7 +12675,7 @@
         <v>45279.92658564815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12732,7 +12732,7 @@
         <v>45824</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12794,7 +12794,7 @@
         <v>45889.68805555555</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12851,7 +12851,7 @@
         <v>45889.37136574074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12908,7 +12908,7 @@
         <v>45824</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45889.65671296296</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>45453</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13094,7 +13094,7 @@
         <v>45889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>45824</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13218,7 +13218,7 @@
         <v>45219</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>45889.65699074074</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         <v>45693</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13404,7 +13404,7 @@
         <v>45033</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13461,7 +13461,7 @@
         <v>44832.953125</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13523,7 +13523,7 @@
         <v>45890.60027777778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13585,7 +13585,7 @@
         <v>45826.30746527778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13647,7 +13647,7 @@
         <v>45827.48145833334</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>45260</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45891.48686342593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45826.56829861111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13895,7 +13895,7 @@
         <v>45215</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         <v>45827.4234375</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>45150.9416087963</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14076,7 +14076,7 @@
         <v>45150.94170138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14138,7 +14138,7 @@
         <v>45196</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>45892.4903587963</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14257,7 +14257,7 @@
         <v>45744</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45601.59490740741</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45622</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45892.48996527777</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45828</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14562,7 +14562,7 @@
         <v>45196</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45832.59638888889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>45833.49342592592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45833.49737268518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14805,7 +14805,7 @@
         <v>45833</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
         <v>45898.53658564815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45833</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45604</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>45898.54578703704</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45834.34582175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45463.48306712963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>45834</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45901.42961805555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>45154.95482638889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>45902.59466435185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>45902.59523148148</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>45834</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>45902.59489583333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45834.34496527778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>45834.34519675926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44726</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>45834.3466087963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45834.34711805556</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45279</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44909</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16082,7 +16082,7 @@
         <v>45839</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16139,7 +16139,7 @@
         <v>45902.59528935186</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>45839</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>44392</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16377,7 +16377,7 @@
         <v>45196</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>45196</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         <v>45905.45395833333</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16563,7 +16563,7 @@
         <v>45908.67270833333</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16625,7 +16625,7 @@
         <v>45908.67048611111</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>45482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45908.68728009259</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>45909.59554398148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45840.63622685185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>45841.67427083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45841.65853009259</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45841.31274305555</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17116,7 +17116,7 @@
         <v>45548</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17178,7 +17178,7 @@
         <v>45912.59493055556</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>45912.53837962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17302,7 +17302,7 @@
         <v>45912.59456018519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         <v>45912.59518518519</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>45845.53070601852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17488,7 +17488,7 @@
         <v>45845.53159722222</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17545,7 +17545,7 @@
         <v>45843.34418981482</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17607,7 +17607,7 @@
         <v>45845</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>45846</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17726,7 +17726,7 @@
         <v>45469.63549768519</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17788,7 +17788,7 @@
         <v>45916</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>45912</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17912,7 +17912,7 @@
         <v>45916.58972222222</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>45916.46555555556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18036,7 +18036,7 @@
         <v>45238</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18093,7 +18093,7 @@
         <v>45916.59509259259</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>45485.45442129629</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45463</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45855</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45855</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45855</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         <v>45855</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>44966</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18584,7 +18584,7 @@
         <v>45474</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18641,7 +18641,7 @@
         <v>45922</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18703,7 +18703,7 @@
         <v>45862</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45866.64355324074</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45925.53197916667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18889,7 +18889,7 @@
         <v>45925</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         <v>45925.59481481482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19008,7 +19008,7 @@
         <v>45579</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19065,7 +19065,7 @@
         <v>45868</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>45868.42105324074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45868</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45868.47645833333</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>45868.48922453704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>45868.47358796297</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19437,7 +19437,7 @@
         <v>45868.4797337963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19499,7 +19499,7 @@
         <v>45870.34478009259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>45870.34482638889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19613,7 +19613,7 @@
         <v>45870.65719907408</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19670,7 +19670,7 @@
         <v>45870.34417824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19732,7 +19732,7 @@
         <v>45870.36483796296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19789,7 +19789,7 @@
         <v>45870</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>45201</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19913,7 +19913,7 @@
         <v>45873.63587962963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19975,7 +19975,7 @@
         <v>45798</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45870.34471064815</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45870.65721064815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>45870.65722222222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>45930.37351851852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45870</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20332,7 +20332,7 @@
         <v>45930</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20394,7 +20394,7 @@
         <v>45930.36988425926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20456,7 +20456,7 @@
         <v>45874</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20518,7 +20518,7 @@
         <v>45874.67802083334</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45930.64141203704</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45874.49055555555</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20704,7 +20704,7 @@
         <v>45874.54712962963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>45751</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>45561.47195601852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45561.55268518518</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45880.49833333334</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20999,7 +20999,7 @@
         <v>45880.41603009259</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>45880.49027777778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45709</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21185,7 +21185,7 @@
         <v>45623</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21242,7 +21242,7 @@
         <v>45615</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21299,7 +21299,7 @@
         <v>45936.57346064815</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>45121</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21423,7 +21423,7 @@
         <v>45880.55248842593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45229</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>45936.51128472222</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>45936</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>45882.40704861111</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21785,7 +21785,7 @@
         <v>45938.61662037037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>45882.36502314815</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21909,7 +21909,7 @@
         <v>45882.42844907408</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21971,7 +21971,7 @@
         <v>45937.42935185185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22033,7 +22033,7 @@
         <v>45882.69832175926</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22095,7 +22095,7 @@
         <v>45818</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22157,7 +22157,7 @@
         <v>45881</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22214,7 +22214,7 @@
         <v>45883.34501157407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22276,7 +22276,7 @@
         <v>45212</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>45939.63638888889</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22400,7 +22400,7 @@
         <v>45150</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22462,7 +22462,7 @@
         <v>45150</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>45938.63606481482</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22586,7 +22586,7 @@
         <v>44321</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22643,7 +22643,7 @@
         <v>45939.63693287037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45943.34489583333</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22767,7 +22767,7 @@
         <v>45940</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44505</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22891,7 +22891,7 @@
         <v>45887</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22948,7 +22948,7 @@
         <v>45943.44826388889</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23005,7 +23005,7 @@
         <v>45939</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23067,7 +23067,7 @@
         <v>45665</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45665</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45665</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23253,7 +23253,7 @@
         <v>44494</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23315,7 +23315,7 @@
         <v>45573</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>45612</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23439,7 +23439,7 @@
         <v>45874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23501,7 +23501,7 @@
         <v>45096</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>45148</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>45244</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>45945.47921296296</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>45945.48712962963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>45062</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>45117</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23925,7 +23925,7 @@
         <v>45148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23987,7 +23987,7 @@
         <v>45894</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24049,7 +24049,7 @@
         <v>45552</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45552</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24173,7 +24173,7 @@
         <v>45614</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24235,7 +24235,7 @@
         <v>45646</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24292,7 +24292,7 @@
         <v>45944.34482638889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24354,7 +24354,7 @@
         <v>45874</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>45884.74715277777</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>45894</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24535,7 +24535,7 @@
         <v>45152</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24597,7 +24597,7 @@
         <v>45467</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24659,7 +24659,7 @@
         <v>45945.48403935185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24716,7 +24716,7 @@
         <v>45467</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45467</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24840,7 +24840,7 @@
         <v>45190.95821759259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24902,7 +24902,7 @@
         <v>45190.95814814815</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45946</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45946.44892361111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>45946.44894675926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45362</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25197,7 +25197,7 @@
         <v>45946</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>45639</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>45196</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>45950.59493055556</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>45950.61998842593</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>45950.66767361111</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>45950.59462962963</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25621,7 +25621,7 @@
         <v>45950.63609953703</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25683,7 +25683,7 @@
         <v>45212</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25745,7 +25745,7 @@
         <v>45952</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25807,7 +25807,7 @@
         <v>45952</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25869,7 +25869,7 @@
         <v>45952</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25931,7 +25931,7 @@
         <v>45723</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25988,7 +25988,7 @@
         <v>45954</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         <v>45705</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>45957.3212037037</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26159,7 +26159,7 @@
         <v>45957.31655092593</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26216,7 +26216,7 @@
         <v>45957</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45955.34559027778</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26340,7 +26340,7 @@
         <v>45954</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26397,7 +26397,7 @@
         <v>45150.94185185185</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45958.48908564815</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26521,7 +26521,7 @@
         <v>45959.59439814815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>45958</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26640,7 +26640,7 @@
         <v>45958.5297337963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>45961.58293981481</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44937</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>45960.59054398148</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44854</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45966</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45198</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45966.34513888889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45615.7202662037</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>45743</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27240,7 +27240,7 @@
         <v>45972.62940972222</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45708.40659722222</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27364,7 +27364,7 @@
         <v>45975.43429398148</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>45975.43760416667</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>45974.64761574074</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>45589</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>45742</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>45727</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>45742</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>45742</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>45980.3780787037</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27897,7 +27897,7 @@
         <v>45980.35990740741</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27954,7 +27954,7 @@
         <v>45980.36521990741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28011,7 +28011,7 @@
         <v>45980</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>45981</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>45985.37741898148</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>45985.40084490741</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>45173</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>45985</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28373,7 +28373,7 @@
         <v>45985.38216435185</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28435,7 +28435,7 @@
         <v>45987</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28497,7 +28497,7 @@
         <v>45986.57354166666</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45238</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>44750</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>44942</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
         <v>44923</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>45986</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28849,7 +28849,7 @@
         <v>45505</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28906,7 +28906,7 @@
         <v>46035</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28963,7 +28963,7 @@
         <v>45033</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29020,7 +29020,7 @@
         <v>46035.40673611111</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29082,7 +29082,7 @@
         <v>45994.54309027778</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29144,7 +29144,7 @@
         <v>45694</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         <v>45994.42756944444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29268,7 +29268,7 @@
         <v>44896</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29325,7 +29325,7 @@
         <v>46034</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29382,7 +29382,7 @@
         <v>45637</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29439,7 +29439,7 @@
         <v>45154.95504629629</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29501,7 +29501,7 @@
         <v>46034</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29558,7 +29558,7 @@
         <v>45994.52303240741</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29620,7 +29620,7 @@
         <v>46034</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29677,7 +29677,7 @@
         <v>45812</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29739,7 +29739,7 @@
         <v>45588</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29801,7 +29801,7 @@
         <v>45175.95738425926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>46034</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45999.52039351852</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>46038.40663194445</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45743</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30096,7 +30096,7 @@
         <v>45999.48986111111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>45999.70535879629</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>45573</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30267,7 +30267,7 @@
         <v>46041</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30329,7 +30329,7 @@
         <v>45999</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         <v>45999.53010416667</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>45199.97033564815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30505,7 +30505,7 @@
         <v>46001.57497685185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30567,7 +30567,7 @@
         <v>44911</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30624,7 +30624,7 @@
         <v>45212</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30681,7 +30681,7 @@
         <v>46001</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30738,7 +30738,7 @@
         <v>46001.57512731481</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30800,7 +30800,7 @@
         <v>46001.57520833334</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30862,7 +30862,7 @@
         <v>46003.46940972222</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>46002.49015046296</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30986,7 +30986,7 @@
         <v>46002.50983796296</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31043,7 +31043,7 @@
         <v>46002.56920138889</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31105,7 +31105,7 @@
         <v>45615.61438657407</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31162,7 +31162,7 @@
         <v>46002.49121527778</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31224,7 +31224,7 @@
         <v>44953</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31281,7 +31281,7 @@
         <v>46003</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31338,7 +31338,7 @@
         <v>46002.46994212963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31395,7 +31395,7 @@
         <v>44783</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31457,7 +31457,7 @@
         <v>45237</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31519,7 +31519,7 @@
         <v>46008</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         <v>45615</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>45639</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>46008.45121527778</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>45639</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>46013.53849537037</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31871,7 +31871,7 @@
         <v>45601.59497685185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31933,7 +31933,7 @@
         <v>46013.60815972222</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>44904</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>45463</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>44942</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>45147</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
         <v>46057.70229166667</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         <v>45154.95511574074</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32337,7 +32337,7 @@
         <v>45259</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32399,7 +32399,7 @@
         <v>46021.59439814815</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32461,7 +32461,7 @@
         <v>45960</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32523,7 +32523,7 @@
         <v>45960</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>45337</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>45960</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>45960</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>45615.61038194445</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>45960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32885,7 +32885,7 @@
         <v>45960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32947,7 +32947,7 @@
         <v>45960</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>45481</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33066,7 +33066,7 @@
         <v>46065.73914351852</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33123,7 +33123,7 @@
         <v>46065.79309027778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33180,7 +33180,7 @@
         <v>46065.12712962963</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33237,7 +33237,7 @@
         <v>44358</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33299,7 +33299,7 @@
         <v>45686.41289351852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33361,7 +33361,7 @@
         <v>45150</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33423,7 +33423,7 @@
         <v>45561.55981481481</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33480,7 +33480,7 @@
         <v>45190.96262731482</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33542,7 +33542,7 @@
         <v>45691</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33604,7 +33604,7 @@
         <v>44609</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>45154.95400462963</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>44992</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33780,7 +33780,7 @@
         <v>45723.34453703704</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>46029</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45639</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>45208.92326388889</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45027</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45600</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>46030.65751157407</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>46030.65762731482</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45264</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45707</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34375,7 +34375,7 @@
         <v>45280</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34432,7 +34432,7 @@
         <v>45154</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>46030.65734953704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>46030.65747685185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>46031</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>45463</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>44818</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>45573</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45362</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45560.71907407408</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>45615.57726851852</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44986</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35079,7 +35079,7 @@
         <v>45547.42896990741</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35136,7 +35136,7 @@
         <v>44362</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35198,7 +35198,7 @@
         <v>45201</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>45639</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35317,7 +35317,7 @@
         <v>44886</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35379,7 +35379,7 @@
         <v>44886</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35441,7 +35441,7 @@
         <v>45188</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45413.65241898148</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>44953</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45630</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35674,7 +35674,7 @@
         <v>44953</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35731,7 +35731,7 @@
         <v>45476</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35793,7 +35793,7 @@
         <v>44904.48228009259</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35850,7 +35850,7 @@
         <v>45231</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35907,7 +35907,7 @@
         <v>45377.95069444444</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45182.94725694445</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>45561</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>44550</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>44516</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>44624</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36259,7 +36259,7 @@
         <v>45190.95791666667</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45237</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36383,7 +36383,7 @@
         <v>45774</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36445,7 +36445,7 @@
         <v>45279</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36502,7 +36502,7 @@
         <v>45773.344375</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36564,7 +36564,7 @@
         <v>45280</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>45238</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>45112</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>44942.46430555556</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45561</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45561</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36906,7 +36906,7 @@
         <v>45231</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36963,7 +36963,7 @@
         <v>45616</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37020,7 +37020,7 @@
         <v>45646</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37077,7 +37077,7 @@
         <v>45687</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37134,7 +37134,7 @@
         <v>44916</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37191,7 +37191,7 @@
         <v>45639</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37253,7 +37253,7 @@
         <v>45727.71951388889</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37315,7 +37315,7 @@
         <v>45201</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37377,7 +37377,7 @@
         <v>45491</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37434,7 +37434,7 @@
         <v>45777</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37496,7 +37496,7 @@
         <v>45779</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37558,7 +37558,7 @@
         <v>45639</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37620,7 +37620,7 @@
         <v>45691</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>45792.65668981482</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37744,7 +37744,7 @@
         <v>45792</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>45796</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37868,7 +37868,7 @@
         <v>45797.36483796296</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37925,7 +37925,7 @@
         <v>45797.44836805556</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37987,7 +37987,7 @@
         <v>45797</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45796</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38106,7 +38106,7 @@
         <v>45208</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38163,7 +38163,7 @@
         <v>45796</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38220,7 +38220,7 @@
         <v>45615</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38277,7 +38277,7 @@
         <v>45799</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38339,7 +38339,7 @@
         <v>45799.34563657407</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38401,7 +38401,7 @@
         <v>45799.65711805555</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38463,7 +38463,7 @@
         <v>45799</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38525,7 +38525,7 @@
         <v>45799.65689814815</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38587,7 +38587,7 @@
         <v>45798.59435185185</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38649,7 +38649,7 @@
         <v>45805</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>45805.57359953703</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38773,7 +38773,7 @@
         <v>45805</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38835,7 +38835,7 @@
         <v>45805.53162037037</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38897,7 +38897,7 @@
         <v>45804</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38954,7 +38954,7 @@
         <v>45805</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45537</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45810</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45708</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45813.48991898148</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>45063</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39321,7 +39321,7 @@
         <v>45400</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
